--- a/thursday_football.xlsx
+++ b/thursday_football.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://argusbm-my.sharepoint.com/personal/tmifsudbonnici_argus_mt/Documents/CS50/football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{C24D127B-FA1C-411E-9E46-C0F8EB7CDC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD0FB35-78C9-4D92-AAD8-F98C84A73C91}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{C24D127B-FA1C-411E-9E46-C0F8EB7CDC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0551C74-6120-4CB6-8568-4884459F36D6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEBE66A7-31DA-417E-B961-02191E797C40}"/>
   </bookViews>
@@ -36,41 +36,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Player</t>
   </si>
   <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>28/08/2025</t>
+  </si>
+  <si>
+    <t>Thursday, 4 September 2025</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
     <t>Thomas</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
     <t>Rubei</t>
   </si>
   <si>
     <t>Maurice</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
     <t>Allen</t>
   </si>
   <si>
-    <t>Julian</t>
-  </si>
-  <si>
     <t>Marcus</t>
   </si>
   <si>
@@ -83,28 +98,16 @@
     <t>Philip CT</t>
   </si>
   <si>
-    <t>Thursday, 4 September 2025</t>
-  </si>
-  <si>
-    <t>11/09/2025</t>
-  </si>
-  <si>
     <t>Crock</t>
   </si>
   <si>
+    <t>Sam Cremona</t>
+  </si>
+  <si>
     <t>Kurt</t>
   </si>
   <si>
     <t>Kane</t>
-  </si>
-  <si>
-    <t>28/08/2025</t>
-  </si>
-  <si>
-    <t>Luke</t>
-  </si>
-  <si>
-    <t>Sam Cremona</t>
   </si>
   <si>
     <t>Sam Mamo</t>
@@ -117,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +167,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,16 +185,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -204,7 +202,15 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -222,16 +228,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{947A74EC-85D9-44D2-B57D-F8769F7427E4}" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19" xr:uid="{947A74EC-85D9-44D2-B57D-F8769F7427E4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
-    <sortCondition sortBy="cellColor" ref="B1:B19" dxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{947A74EC-85D9-44D2-B57D-F8769F7427E4}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{947A74EC-85D9-44D2-B57D-F8769F7427E4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition sortBy="cellColor" ref="C1:C19" dxfId="3"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CEB751AF-E4BF-4C10-94B8-5413E6859FC6}" name="Player"/>
-    <tableColumn id="4" xr3:uid="{6356D834-41E8-4B7C-B92B-8807F268BC19}" name="28/08/2025" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C6753DBE-63A5-492E-905A-90C3E0B36085}" name="21/08/2025" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6356D834-41E8-4B7C-B92B-8807F268BC19}" name="28/08/2025" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{AB484C7E-AA39-43AF-AA77-FBC1755A5C15}" name="Thursday, 4 September 2025"/>
-    <tableColumn id="3" xr3:uid="{7F8603A8-A773-4980-9C48-C7AEEDD951BC}" name="11/09/2025" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7F8603A8-A773-4980-9C48-C7AEEDD951BC}" name="11/09/2025" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -554,216 +561,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333344FF-F281-44D2-B050-86CF99654154}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thursday_football.xlsx
+++ b/thursday_football.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://argusbm-my.sharepoint.com/personal/tmifsudbonnici_argus_mt/Documents/CS50/football/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmifsudbonnici\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{C24D127B-FA1C-411E-9E46-C0F8EB7CDC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0551C74-6120-4CB6-8568-4884459F36D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713B632-418E-42FD-84D1-C372C06F7A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEBE66A7-31DA-417E-B961-02191E797C40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>Player</t>
   </si>
@@ -120,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +186,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -564,10 +564,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -575,7 +575,7 @@
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -605,9 +605,11 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -620,9 +622,9 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -635,9 +637,11 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -650,9 +654,11 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -661,9 +667,9 @@
         <v>7</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -676,9 +682,11 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -687,9 +695,11 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -700,9 +710,11 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -711,9 +723,9 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -724,9 +736,9 @@
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -739,9 +751,11 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -754,27 +768,29 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -783,27 +799,31 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -812,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
